--- a/data/output/Pedido_Semana_07_13022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_utiles_jardin.xlsx
@@ -814,10 +814,10 @@
       </c>
       <c r="O4" s="7" t="inlineStr"/>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>4101140003</t>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>4403020006</t>
@@ -1042,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>4403040002</t>
@@ -1120,13 +1120,13 @@
         <v>3</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>17.25</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>7.9</v>
+        <v>5.93</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.74</v>
+        <v>3.56</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1215,25 +1215,25 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>4403050002</t>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14.15</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>8.49</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1296,25 +1296,25 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>4602020002</t>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32.75</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>19.65</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>4602020006</t>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" hidden="1">
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>4603020017</t>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>4603020021</t>
@@ -1690,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" hidden="1">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>4605010009</t>
@@ -1933,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>90.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>54.49</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" hidden="1">
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>4401060001</t>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>8.94</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" hidden="1">
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>4301020010</t>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>66.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>40.09</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2529,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>4105080009</t>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2691,7 +2691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>4105080012</t>
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>20.46</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>4103070011</t>
@@ -3148,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>13.56</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34"/>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>642.47€</t>
+          <t>236.26€</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
